--- a/Doc/SprintBacklog4.xlsx
+++ b/Doc/SprintBacklog4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -96,12 +96,6 @@
     <t>As a registred user, I want to  add my mude to my page</t>
   </si>
   <si>
-    <t xml:space="preserve">As an admin, I want to  manage user list </t>
-  </si>
-  <si>
-    <t>delete a registrеd user</t>
-  </si>
-  <si>
     <t>As a user, I want to search registred users` pages</t>
   </si>
   <si>
@@ -127,6 +121,12 @@
   </si>
   <si>
     <t>deliver system warnings</t>
+  </si>
+  <si>
+    <t>report administrator about my problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want to get an administration support </t>
   </si>
 </sst>
 </file>
@@ -308,7 +308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,6 +408,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,9 +522,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -592,6 +597,46 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -604,44 +649,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -946,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,558 +977,561 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="A3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4">
-        <v>3</v>
-      </c>
-      <c r="E6" s="14">
-        <v>3</v>
-      </c>
-      <c r="F6" s="16">
-        <v>3</v>
-      </c>
-      <c r="G6" s="18">
-        <v>3</v>
-      </c>
-      <c r="H6" s="20">
-        <v>3</v>
-      </c>
-      <c r="I6" s="22">
-        <v>3</v>
-      </c>
-      <c r="J6" s="24">
-        <v>3</v>
-      </c>
-      <c r="K6" s="26">
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="13">
+        <v>3</v>
+      </c>
+      <c r="F6" s="15">
+        <v>3</v>
+      </c>
+      <c r="G6" s="17">
+        <v>3</v>
+      </c>
+      <c r="H6" s="19">
+        <v>3</v>
+      </c>
+      <c r="I6" s="21">
+        <v>3</v>
+      </c>
+      <c r="J6" s="23">
+        <v>3</v>
+      </c>
+      <c r="K6" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4">
-        <v>3</v>
-      </c>
-      <c r="E7" s="14">
-        <v>3</v>
-      </c>
-      <c r="F7" s="16">
-        <v>3</v>
-      </c>
-      <c r="G7" s="18">
-        <v>3</v>
-      </c>
-      <c r="H7" s="20">
-        <v>3</v>
-      </c>
-      <c r="I7" s="22">
-        <v>3</v>
-      </c>
-      <c r="J7" s="24">
-        <v>3</v>
-      </c>
-      <c r="K7" s="26">
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="13">
+        <v>3</v>
+      </c>
+      <c r="F7" s="15">
+        <v>3</v>
+      </c>
+      <c r="G7" s="17">
+        <v>3</v>
+      </c>
+      <c r="H7" s="19">
+        <v>3</v>
+      </c>
+      <c r="I7" s="21">
+        <v>3</v>
+      </c>
+      <c r="J7" s="23">
+        <v>3</v>
+      </c>
+      <c r="K7" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="13">
+        <v>3</v>
+      </c>
+      <c r="F8" s="15">
+        <v>3</v>
+      </c>
+      <c r="G8" s="17">
+        <v>3</v>
+      </c>
+      <c r="H8" s="19">
+        <v>3</v>
+      </c>
+      <c r="I8" s="21">
+        <v>3</v>
+      </c>
+      <c r="J8" s="23">
+        <v>3</v>
+      </c>
+      <c r="K8" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="13">
+        <v>3</v>
+      </c>
+      <c r="F9" s="15">
+        <v>3</v>
+      </c>
+      <c r="G9" s="17">
+        <v>3</v>
+      </c>
+      <c r="H9" s="19">
+        <v>3</v>
+      </c>
+      <c r="I9" s="21">
+        <v>3</v>
+      </c>
+      <c r="J9" s="23">
+        <v>3</v>
+      </c>
+      <c r="K9" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5</v>
+      </c>
+      <c r="E10" s="13">
+        <v>5</v>
+      </c>
+      <c r="F10" s="15">
+        <v>5</v>
+      </c>
+      <c r="G10" s="17">
+        <v>5</v>
+      </c>
+      <c r="H10" s="19">
+        <v>5</v>
+      </c>
+      <c r="I10" s="21">
+        <v>5</v>
+      </c>
+      <c r="J10" s="23">
+        <v>5</v>
+      </c>
+      <c r="K10" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="E11" s="13">
+        <v>5</v>
+      </c>
+      <c r="F11" s="15">
+        <v>5</v>
+      </c>
+      <c r="G11" s="17">
+        <v>5</v>
+      </c>
+      <c r="H11" s="19">
+        <v>5</v>
+      </c>
+      <c r="I11" s="21">
+        <v>5</v>
+      </c>
+      <c r="J11" s="23">
+        <v>5</v>
+      </c>
+      <c r="K11" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="13">
+        <v>5</v>
+      </c>
+      <c r="F12" s="15">
+        <v>5</v>
+      </c>
+      <c r="G12" s="17">
+        <v>5</v>
+      </c>
+      <c r="H12" s="19">
+        <v>5</v>
+      </c>
+      <c r="I12" s="21">
+        <v>5</v>
+      </c>
+      <c r="J12" s="23">
+        <v>5</v>
+      </c>
+      <c r="K12" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3">
+        <v>8</v>
+      </c>
+      <c r="E13" s="13">
+        <v>8</v>
+      </c>
+      <c r="F13" s="15">
+        <v>8</v>
+      </c>
+      <c r="G13" s="17">
+        <v>8</v>
+      </c>
+      <c r="H13" s="19">
+        <v>8</v>
+      </c>
+      <c r="I13" s="21">
+        <v>8</v>
+      </c>
+      <c r="J13" s="23">
+        <v>8</v>
+      </c>
+      <c r="K13" s="25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="13">
+        <v>2</v>
+      </c>
+      <c r="F14" s="15">
+        <v>2</v>
+      </c>
+      <c r="G14" s="17">
+        <v>2</v>
+      </c>
+      <c r="H14" s="19">
+        <v>2</v>
+      </c>
+      <c r="I14" s="21">
+        <v>2</v>
+      </c>
+      <c r="J14" s="23">
+        <v>2</v>
+      </c>
+      <c r="K14" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="13">
+        <v>2</v>
+      </c>
+      <c r="F15" s="15">
+        <v>2</v>
+      </c>
+      <c r="G15" s="17">
+        <v>2</v>
+      </c>
+      <c r="H15" s="19">
+        <v>2</v>
+      </c>
+      <c r="I15" s="21">
+        <v>2</v>
+      </c>
+      <c r="J15" s="23">
+        <v>2</v>
+      </c>
+      <c r="K15" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="13">
+        <v>2</v>
+      </c>
+      <c r="F16" s="15">
+        <v>2</v>
+      </c>
+      <c r="G16" s="17">
+        <v>2</v>
+      </c>
+      <c r="H16" s="19">
+        <v>2</v>
+      </c>
+      <c r="I16" s="21">
+        <v>2</v>
+      </c>
+      <c r="J16" s="23">
+        <v>2</v>
+      </c>
+      <c r="K16" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4">
-        <v>3</v>
-      </c>
-      <c r="E8" s="14">
-        <v>3</v>
-      </c>
-      <c r="F8" s="16">
-        <v>3</v>
-      </c>
-      <c r="G8" s="18">
-        <v>3</v>
-      </c>
-      <c r="H8" s="20">
-        <v>3</v>
-      </c>
-      <c r="I8" s="22">
-        <v>3</v>
-      </c>
-      <c r="J8" s="24">
-        <v>3</v>
-      </c>
-      <c r="K8" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="13">
+        <v>3</v>
+      </c>
+      <c r="F17" s="15">
+        <v>3</v>
+      </c>
+      <c r="G17" s="17">
+        <v>3</v>
+      </c>
+      <c r="H17" s="19">
+        <v>3</v>
+      </c>
+      <c r="I17" s="21">
+        <v>3</v>
+      </c>
+      <c r="J17" s="23">
+        <v>3</v>
+      </c>
+      <c r="K17" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="4">
-        <v>3</v>
-      </c>
-      <c r="E9" s="14">
-        <v>3</v>
-      </c>
-      <c r="F9" s="16">
-        <v>3</v>
-      </c>
-      <c r="G9" s="18">
-        <v>3</v>
-      </c>
-      <c r="H9" s="20">
-        <v>3</v>
-      </c>
-      <c r="I9" s="22">
-        <v>3</v>
-      </c>
-      <c r="J9" s="24">
-        <v>3</v>
-      </c>
-      <c r="K9" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="4">
-        <v>5</v>
-      </c>
-      <c r="E10" s="14">
-        <v>5</v>
-      </c>
-      <c r="F10" s="16">
-        <v>5</v>
-      </c>
-      <c r="G10" s="18">
-        <v>5</v>
-      </c>
-      <c r="H10" s="20">
-        <v>5</v>
-      </c>
-      <c r="I10" s="22">
-        <v>5</v>
-      </c>
-      <c r="J10" s="24">
-        <v>5</v>
-      </c>
-      <c r="K10" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="4">
-        <v>5</v>
-      </c>
-      <c r="E11" s="14">
-        <v>5</v>
-      </c>
-      <c r="F11" s="16">
-        <v>5</v>
-      </c>
-      <c r="G11" s="18">
-        <v>5</v>
-      </c>
-      <c r="H11" s="20">
-        <v>5</v>
-      </c>
-      <c r="I11" s="22">
-        <v>5</v>
-      </c>
-      <c r="J11" s="24">
-        <v>5</v>
-      </c>
-      <c r="K11" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="4">
-        <v>5</v>
-      </c>
-      <c r="E12" s="14">
-        <v>5</v>
-      </c>
-      <c r="F12" s="16">
-        <v>5</v>
-      </c>
-      <c r="G12" s="18">
-        <v>5</v>
-      </c>
-      <c r="H12" s="20">
-        <v>5</v>
-      </c>
-      <c r="I12" s="22">
-        <v>5</v>
-      </c>
-      <c r="J12" s="24">
-        <v>5</v>
-      </c>
-      <c r="K12" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="4">
-        <v>8</v>
-      </c>
-      <c r="E13" s="14">
-        <v>8</v>
-      </c>
-      <c r="F13" s="16">
-        <v>8</v>
-      </c>
-      <c r="G13" s="18">
-        <v>8</v>
-      </c>
-      <c r="H13" s="20">
-        <v>8</v>
-      </c>
-      <c r="I13" s="22">
-        <v>8</v>
-      </c>
-      <c r="J13" s="24">
-        <v>8</v>
-      </c>
-      <c r="K13" s="26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2</v>
-      </c>
-      <c r="E14" s="14">
-        <v>2</v>
-      </c>
-      <c r="F14" s="16">
-        <v>2</v>
-      </c>
-      <c r="G14" s="18">
-        <v>2</v>
-      </c>
-      <c r="H14" s="20">
-        <v>2</v>
-      </c>
-      <c r="I14" s="22">
-        <v>2</v>
-      </c>
-      <c r="J14" s="24">
-        <v>2</v>
-      </c>
-      <c r="K14" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="4">
-        <v>2</v>
-      </c>
-      <c r="E15" s="14">
-        <v>2</v>
-      </c>
-      <c r="F15" s="16">
-        <v>2</v>
-      </c>
-      <c r="G15" s="18">
-        <v>2</v>
-      </c>
-      <c r="H15" s="20">
-        <v>2</v>
-      </c>
-      <c r="I15" s="22">
-        <v>2</v>
-      </c>
-      <c r="J15" s="24">
-        <v>2</v>
-      </c>
-      <c r="K15" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="4">
-        <v>2</v>
-      </c>
-      <c r="E16" s="14">
-        <v>2</v>
-      </c>
-      <c r="F16" s="16">
-        <v>2</v>
-      </c>
-      <c r="G16" s="18">
-        <v>2</v>
-      </c>
-      <c r="H16" s="20">
-        <v>2</v>
-      </c>
-      <c r="I16" s="22">
-        <v>2</v>
-      </c>
-      <c r="J16" s="24">
-        <v>2</v>
-      </c>
-      <c r="K16" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="4">
-        <v>3</v>
-      </c>
-      <c r="E17" s="14">
-        <v>3</v>
-      </c>
-      <c r="F17" s="16">
-        <v>3</v>
-      </c>
-      <c r="G17" s="18">
-        <v>3</v>
-      </c>
-      <c r="H17" s="20">
-        <v>3</v>
-      </c>
-      <c r="I17" s="22">
-        <v>3</v>
-      </c>
-      <c r="J17" s="24">
-        <v>3</v>
-      </c>
-      <c r="K17" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2</v>
-      </c>
-      <c r="E18" s="14">
-        <v>2</v>
-      </c>
-      <c r="F18" s="16">
-        <v>2</v>
-      </c>
-      <c r="G18" s="18">
-        <v>2</v>
-      </c>
-      <c r="H18" s="20">
-        <v>2</v>
-      </c>
-      <c r="I18" s="22">
-        <v>2</v>
-      </c>
-      <c r="J18" s="24">
-        <v>2</v>
-      </c>
-      <c r="K18" s="26">
-        <v>2</v>
-      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="13">
+        <v>2</v>
+      </c>
+      <c r="F18" s="15">
+        <v>2</v>
+      </c>
+      <c r="G18" s="17">
+        <v>2</v>
+      </c>
+      <c r="H18" s="19">
+        <v>2</v>
+      </c>
+      <c r="I18" s="21">
+        <v>2</v>
+      </c>
+      <c r="J18" s="23">
+        <v>2</v>
+      </c>
+      <c r="K18" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
